--- a/Perguntas_UML.xlsx
+++ b/Perguntas_UML.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29103"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29108"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B9C40CF-7760-457F-A660-711220309EC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{20897F3E-282D-49D3-B04D-057EDFA20089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="204" yWindow="516" windowWidth="22716" windowHeight="8940" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="204" yWindow="516" windowWidth="22716" windowHeight="8940" firstSheet="6" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Classe" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="469">
   <si>
     <t>Classe (diagrama de classe)</t>
   </si>
@@ -1063,18 +1063,6 @@
   </si>
   <si>
     <t>A ferramenta garante que os argumentos só possam ser constantes, parâmetros da Interação envolvente ou atributos do classificador que possui a da Interação envolvente?</t>
-  </si>
-  <si>
-    <t>SQ:4.R.5</t>
-  </si>
-  <si>
-    <t>A ferramenta garante que o returnValueRecipient seja uma propriedade de um elemento conectável representado por uma linha de vida abrangida por este Uso da Interação?</t>
-  </si>
-  <si>
-    <t>SQ:4.R.6</t>
-  </si>
-  <si>
-    <t>A ferramenta garante que o tipo do returnValue corresponda ao tipo do returnValueRecipient?</t>
   </si>
   <si>
     <t>Especificação da Execução (diagrama de sequência)</t>
@@ -4485,7 +4473,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="542925" cy="733425"/>
@@ -4519,7 +4507,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="933450" cy="895350"/>
@@ -4553,7 +4541,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="428625" cy="409575"/>
@@ -4587,7 +4575,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>24765</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1104900" cy="1019175"/>
@@ -4625,7 +4613,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1104900" cy="1019175"/>
@@ -4663,7 +4651,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1104900" cy="733425"/>
@@ -4701,7 +4689,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1104900" cy="619125"/>
@@ -4739,7 +4727,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>323850</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1028700" cy="219075"/>
@@ -4780,7 +4768,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1009650" cy="781050"/>
@@ -4928,7 +4916,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>251460</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="685800" cy="1285875"/>
@@ -4966,7 +4954,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>198120</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1123950" cy="638175"/>
@@ -5007,7 +4995,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1123950" cy="771525"/>
@@ -7411,7 +7399,7 @@
   <dimension ref="A1:W992"/>
   <sheetViews>
     <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -12408,10 +12396,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:Z996"/>
+  <dimension ref="A1:Z994"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:XFD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -13260,17 +13248,13 @@
       <c r="Y26" s="14"/>
       <c r="Z26" s="14"/>
     </row>
-    <row r="27" spans="1:26" ht="42" customHeight="1">
-      <c r="A27" s="36" t="s">
+    <row r="27" spans="1:26" ht="21">
+      <c r="A27" s="18"/>
+      <c r="B27" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="B27" s="36" t="s">
-        <v>170</v>
-      </c>
-      <c r="C27" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="D27" s="19"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="20"/>
       <c r="E27" s="14"/>
       <c r="F27" s="14"/>
       <c r="G27" s="14"/>
@@ -13294,15 +13278,15 @@
       <c r="Y27" s="14"/>
       <c r="Z27" s="14"/>
     </row>
-    <row r="28" spans="1:26" ht="42" customHeight="1">
+    <row r="28" spans="1:26" ht="105.6" customHeight="1">
       <c r="A28" s="36" t="s">
+        <v>170</v>
+      </c>
+      <c r="B28" s="36" t="s">
         <v>171</v>
       </c>
-      <c r="B28" s="36" t="s">
-        <v>172</v>
-      </c>
-      <c r="C28" s="38" t="s">
-        <v>37</v>
+      <c r="C28" s="37" t="s">
+        <v>3</v>
       </c>
       <c r="D28" s="19"/>
       <c r="E28" s="14"/>
@@ -13328,13 +13312,17 @@
       <c r="Y28" s="14"/>
       <c r="Z28" s="14"/>
     </row>
-    <row r="29" spans="1:26" ht="21">
-      <c r="A29" s="18"/>
-      <c r="B29" s="17" t="s">
+    <row r="29" spans="1:26" ht="33.75" customHeight="1">
+      <c r="A29" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="B29" s="36" t="s">
         <v>173</v>
       </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="20"/>
+      <c r="C29" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" s="19"/>
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
       <c r="G29" s="14"/>
@@ -13358,17 +13346,13 @@
       <c r="Y29" s="14"/>
       <c r="Z29" s="14"/>
     </row>
-    <row r="30" spans="1:26" ht="105.6" customHeight="1">
-      <c r="A30" s="36" t="s">
+    <row r="30" spans="1:26" ht="21">
+      <c r="A30" s="18"/>
+      <c r="B30" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="B30" s="36" t="s">
-        <v>175</v>
-      </c>
-      <c r="C30" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="D30" s="19"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="20"/>
       <c r="E30" s="14"/>
       <c r="F30" s="14"/>
       <c r="G30" s="14"/>
@@ -13392,15 +13376,15 @@
       <c r="Y30" s="14"/>
       <c r="Z30" s="14"/>
     </row>
-    <row r="31" spans="1:26" ht="33.75" customHeight="1">
+    <row r="31" spans="1:26" ht="81">
       <c r="A31" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="B31" s="36" t="s">
         <v>176</v>
       </c>
-      <c r="B31" s="36" t="s">
-        <v>177</v>
-      </c>
-      <c r="C31" s="38" t="s">
-        <v>37</v>
+      <c r="C31" s="37" t="s">
+        <v>3</v>
       </c>
       <c r="D31" s="19"/>
       <c r="E31" s="14"/>
@@ -13426,13 +13410,17 @@
       <c r="Y31" s="14"/>
       <c r="Z31" s="14"/>
     </row>
-    <row r="32" spans="1:26" ht="21">
-      <c r="A32" s="18"/>
-      <c r="B32" s="17" t="s">
+    <row r="32" spans="1:26" ht="45" customHeight="1">
+      <c r="A32" s="36" t="s">
+        <v>177</v>
+      </c>
+      <c r="B32" s="36" t="s">
         <v>178</v>
       </c>
-      <c r="C32" s="18"/>
-      <c r="D32" s="20"/>
+      <c r="C32" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" s="19"/>
       <c r="E32" s="14"/>
       <c r="F32" s="14"/>
       <c r="G32" s="14"/>
@@ -13456,17 +13444,13 @@
       <c r="Y32" s="14"/>
       <c r="Z32" s="14"/>
     </row>
-    <row r="33" spans="1:26" ht="81">
-      <c r="A33" s="36" t="s">
+    <row r="33" spans="1:26" ht="21.75" customHeight="1">
+      <c r="A33" s="18"/>
+      <c r="B33" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="B33" s="36" t="s">
-        <v>180</v>
-      </c>
-      <c r="C33" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="D33" s="19"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="51"/>
       <c r="E33" s="14"/>
       <c r="F33" s="14"/>
       <c r="G33" s="14"/>
@@ -13490,17 +13474,17 @@
       <c r="Y33" s="14"/>
       <c r="Z33" s="14"/>
     </row>
-    <row r="34" spans="1:26" ht="45" customHeight="1">
+    <row r="34" spans="1:26" ht="87" customHeight="1">
       <c r="A34" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="B34" s="36" t="s">
         <v>181</v>
       </c>
-      <c r="B34" s="36" t="s">
-        <v>182</v>
-      </c>
-      <c r="C34" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="D34" s="19"/>
+      <c r="C34" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" s="25"/>
       <c r="E34" s="14"/>
       <c r="F34" s="14"/>
       <c r="G34" s="14"/>
@@ -13524,13 +13508,13 @@
       <c r="Y34" s="14"/>
       <c r="Z34" s="14"/>
     </row>
-    <row r="35" spans="1:26" ht="21.75" customHeight="1">
+    <row r="35" spans="1:26" ht="21">
       <c r="A35" s="18"/>
       <c r="B35" s="17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C35" s="18"/>
-      <c r="D35" s="51"/>
+      <c r="D35" s="21"/>
       <c r="E35" s="14"/>
       <c r="F35" s="14"/>
       <c r="G35" s="14"/>
@@ -13554,17 +13538,17 @@
       <c r="Y35" s="14"/>
       <c r="Z35" s="14"/>
     </row>
-    <row r="36" spans="1:26" ht="87" customHeight="1">
+    <row r="36" spans="1:26" ht="66" customHeight="1">
       <c r="A36" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="B36" s="36" t="s">
         <v>184</v>
       </c>
-      <c r="B36" s="36" t="s">
-        <v>185</v>
-      </c>
-      <c r="C36" s="41" t="s">
+      <c r="C36" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="D36" s="25"/>
+      <c r="D36" s="19"/>
       <c r="E36" s="14"/>
       <c r="F36" s="14"/>
       <c r="G36" s="14"/>
@@ -13588,13 +13572,17 @@
       <c r="Y36" s="14"/>
       <c r="Z36" s="14"/>
     </row>
-    <row r="37" spans="1:26" ht="21">
-      <c r="A37" s="18"/>
-      <c r="B37" s="17" t="s">
+    <row r="37" spans="1:26" ht="32.25">
+      <c r="A37" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="B37" s="36" t="s">
         <v>186</v>
       </c>
-      <c r="C37" s="18"/>
-      <c r="D37" s="21"/>
+      <c r="C37" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="D37" s="19"/>
       <c r="E37" s="14"/>
       <c r="F37" s="14"/>
       <c r="G37" s="14"/>
@@ -13618,15 +13606,15 @@
       <c r="Y37" s="14"/>
       <c r="Z37" s="14"/>
     </row>
-    <row r="38" spans="1:26" ht="66" customHeight="1">
+    <row r="38" spans="1:26" ht="48.75">
       <c r="A38" s="36" t="s">
         <v>187</v>
       </c>
       <c r="B38" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="C38" s="37" t="s">
-        <v>3</v>
+      <c r="C38" s="38" t="s">
+        <v>37</v>
       </c>
       <c r="D38" s="19"/>
       <c r="E38" s="14"/>
@@ -13652,7 +13640,7 @@
       <c r="Y38" s="14"/>
       <c r="Z38" s="14"/>
     </row>
-    <row r="39" spans="1:26" ht="32.25">
+    <row r="39" spans="1:26" ht="113.25">
       <c r="A39" s="36" t="s">
         <v>189</v>
       </c>
@@ -13686,17 +13674,13 @@
       <c r="Y39" s="14"/>
       <c r="Z39" s="14"/>
     </row>
-    <row r="40" spans="1:26" ht="48.75">
-      <c r="A40" s="36" t="s">
+    <row r="40" spans="1:26" ht="21">
+      <c r="A40" s="18"/>
+      <c r="B40" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="B40" s="36" t="s">
-        <v>192</v>
-      </c>
-      <c r="C40" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="D40" s="19"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="20"/>
       <c r="E40" s="14"/>
       <c r="F40" s="14"/>
       <c r="G40" s="14"/>
@@ -13720,15 +13704,15 @@
       <c r="Y40" s="14"/>
       <c r="Z40" s="14"/>
     </row>
-    <row r="41" spans="1:26" ht="113.25">
+    <row r="41" spans="1:26" ht="81" customHeight="1">
       <c r="A41" s="36" t="s">
+        <v>192</v>
+      </c>
+      <c r="B41" s="36" t="s">
         <v>193</v>
       </c>
-      <c r="B41" s="36" t="s">
-        <v>194</v>
-      </c>
-      <c r="C41" s="38" t="s">
-        <v>37</v>
+      <c r="C41" s="37" t="s">
+        <v>3</v>
       </c>
       <c r="D41" s="19"/>
       <c r="E41" s="14"/>
@@ -13757,7 +13741,7 @@
     <row r="42" spans="1:26" ht="21">
       <c r="A42" s="18"/>
       <c r="B42" s="17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C42" s="18"/>
       <c r="D42" s="20"/>
@@ -13784,12 +13768,12 @@
       <c r="Y42" s="14"/>
       <c r="Z42" s="14"/>
     </row>
-    <row r="43" spans="1:26" ht="81" customHeight="1">
+    <row r="43" spans="1:26" ht="49.5" customHeight="1">
       <c r="A43" s="36" t="s">
+        <v>195</v>
+      </c>
+      <c r="B43" s="36" t="s">
         <v>196</v>
-      </c>
-      <c r="B43" s="36" t="s">
-        <v>197</v>
       </c>
       <c r="C43" s="37" t="s">
         <v>3</v>
@@ -13818,13 +13802,17 @@
       <c r="Y43" s="14"/>
       <c r="Z43" s="14"/>
     </row>
-    <row r="44" spans="1:26" ht="21">
-      <c r="A44" s="18"/>
-      <c r="B44" s="17" t="s">
+    <row r="44" spans="1:26" ht="48.75">
+      <c r="A44" s="36" t="s">
+        <v>197</v>
+      </c>
+      <c r="B44" s="36" t="s">
         <v>198</v>
       </c>
-      <c r="C44" s="18"/>
-      <c r="D44" s="20"/>
+      <c r="C44" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="D44" s="19"/>
       <c r="E44" s="14"/>
       <c r="F44" s="14"/>
       <c r="G44" s="14"/>
@@ -13848,17 +13836,13 @@
       <c r="Y44" s="14"/>
       <c r="Z44" s="14"/>
     </row>
-    <row r="45" spans="1:26" ht="49.5" customHeight="1">
-      <c r="A45" s="36" t="s">
+    <row r="45" spans="1:26" ht="21">
+      <c r="A45" s="18"/>
+      <c r="B45" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="B45" s="36" t="s">
-        <v>200</v>
-      </c>
-      <c r="C45" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="D45" s="19"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="20"/>
       <c r="E45" s="14"/>
       <c r="F45" s="14"/>
       <c r="G45" s="14"/>
@@ -13882,15 +13866,15 @@
       <c r="Y45" s="14"/>
       <c r="Z45" s="14"/>
     </row>
-    <row r="46" spans="1:26" ht="48.75">
+    <row r="46" spans="1:26" ht="88.5" customHeight="1">
       <c r="A46" s="36" t="s">
+        <v>200</v>
+      </c>
+      <c r="B46" s="36" t="s">
         <v>201</v>
       </c>
-      <c r="B46" s="36" t="s">
-        <v>202</v>
-      </c>
-      <c r="C46" s="38" t="s">
-        <v>37</v>
+      <c r="C46" s="37" t="s">
+        <v>3</v>
       </c>
       <c r="D46" s="19"/>
       <c r="E46" s="14"/>
@@ -13916,13 +13900,17 @@
       <c r="Y46" s="14"/>
       <c r="Z46" s="14"/>
     </row>
-    <row r="47" spans="1:26" ht="21">
-      <c r="A47" s="18"/>
-      <c r="B47" s="17" t="s">
+    <row r="47" spans="1:26" ht="16.5">
+      <c r="A47" s="36" t="s">
+        <v>202</v>
+      </c>
+      <c r="B47" s="36" t="s">
         <v>203</v>
       </c>
-      <c r="C47" s="18"/>
-      <c r="D47" s="20"/>
+      <c r="C47" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="D47" s="19"/>
       <c r="E47" s="14"/>
       <c r="F47" s="14"/>
       <c r="G47" s="14"/>
@@ -13946,17 +13934,13 @@
       <c r="Y47" s="14"/>
       <c r="Z47" s="14"/>
     </row>
-    <row r="48" spans="1:26" ht="88.5" customHeight="1">
-      <c r="A48" s="36" t="s">
+    <row r="48" spans="1:26" ht="21">
+      <c r="A48" s="18"/>
+      <c r="B48" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="B48" s="36" t="s">
-        <v>205</v>
-      </c>
-      <c r="C48" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="D48" s="19"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="20"/>
       <c r="E48" s="14"/>
       <c r="F48" s="14"/>
       <c r="G48" s="14"/>
@@ -13980,15 +13964,15 @@
       <c r="Y48" s="14"/>
       <c r="Z48" s="14"/>
     </row>
-    <row r="49" spans="1:26" ht="16.5">
+    <row r="49" spans="1:26" ht="87.75" customHeight="1">
       <c r="A49" s="36" t="s">
+        <v>205</v>
+      </c>
+      <c r="B49" s="36" t="s">
         <v>206</v>
       </c>
-      <c r="B49" s="36" t="s">
-        <v>207</v>
-      </c>
-      <c r="C49" s="38" t="s">
-        <v>37</v>
+      <c r="C49" s="37" t="s">
+        <v>3</v>
       </c>
       <c r="D49" s="19"/>
       <c r="E49" s="14"/>
@@ -14017,7 +14001,7 @@
     <row r="50" spans="1:26" ht="21">
       <c r="A50" s="18"/>
       <c r="B50" s="17" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C50" s="18"/>
       <c r="D50" s="20"/>
@@ -14044,12 +14028,12 @@
       <c r="Y50" s="14"/>
       <c r="Z50" s="14"/>
     </row>
-    <row r="51" spans="1:26" ht="87.75" customHeight="1">
+    <row r="51" spans="1:26" ht="63.6" customHeight="1">
       <c r="A51" s="36" t="s">
+        <v>208</v>
+      </c>
+      <c r="B51" s="36" t="s">
         <v>209</v>
-      </c>
-      <c r="B51" s="36" t="s">
-        <v>210</v>
       </c>
       <c r="C51" s="37" t="s">
         <v>3</v>
@@ -14078,13 +14062,17 @@
       <c r="Y51" s="14"/>
       <c r="Z51" s="14"/>
     </row>
-    <row r="52" spans="1:26" ht="21">
-      <c r="A52" s="18"/>
-      <c r="B52" s="17" t="s">
+    <row r="52" spans="1:26" ht="63.6" customHeight="1">
+      <c r="A52" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="B52" s="36" t="s">
         <v>211</v>
       </c>
-      <c r="C52" s="18"/>
-      <c r="D52" s="20"/>
+      <c r="C52" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="D52" s="19"/>
       <c r="E52" s="14"/>
       <c r="F52" s="14"/>
       <c r="G52" s="14"/>
@@ -14108,17 +14096,13 @@
       <c r="Y52" s="14"/>
       <c r="Z52" s="14"/>
     </row>
-    <row r="53" spans="1:26" ht="63.6" customHeight="1">
-      <c r="A53" s="36" t="s">
+    <row r="53" spans="1:26" ht="21">
+      <c r="A53" s="18"/>
+      <c r="B53" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="B53" s="36" t="s">
-        <v>213</v>
-      </c>
-      <c r="C53" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="D53" s="19"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="20"/>
       <c r="E53" s="14"/>
       <c r="F53" s="14"/>
       <c r="G53" s="14"/>
@@ -14142,15 +14126,15 @@
       <c r="Y53" s="14"/>
       <c r="Z53" s="14"/>
     </row>
-    <row r="54" spans="1:26" ht="63.6" customHeight="1">
+    <row r="54" spans="1:26" ht="57.75" customHeight="1">
       <c r="A54" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="B54" s="36" t="s">
         <v>214</v>
       </c>
-      <c r="B54" s="36" t="s">
-        <v>215</v>
-      </c>
-      <c r="C54" s="38" t="s">
-        <v>37</v>
+      <c r="C54" s="37" t="s">
+        <v>3</v>
       </c>
       <c r="D54" s="19"/>
       <c r="E54" s="14"/>
@@ -14179,7 +14163,7 @@
     <row r="55" spans="1:26" ht="21">
       <c r="A55" s="18"/>
       <c r="B55" s="17" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C55" s="18"/>
       <c r="D55" s="20"/>
@@ -14206,17 +14190,17 @@
       <c r="Y55" s="14"/>
       <c r="Z55" s="14"/>
     </row>
-    <row r="56" spans="1:26" ht="57.75" customHeight="1">
-      <c r="A56" s="36" t="s">
+    <row r="56" spans="1:26" ht="64.5">
+      <c r="A56" s="40" t="s">
+        <v>216</v>
+      </c>
+      <c r="B56" s="40" t="s">
         <v>217</v>
       </c>
-      <c r="B56" s="36" t="s">
-        <v>218</v>
-      </c>
-      <c r="C56" s="37" t="s">
+      <c r="C56" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="D56" s="19"/>
+      <c r="D56" s="48"/>
       <c r="E56" s="14"/>
       <c r="F56" s="14"/>
       <c r="G56" s="14"/>
@@ -14240,14 +14224,18 @@
       <c r="Y56" s="14"/>
       <c r="Z56" s="14"/>
     </row>
-    <row r="57" spans="1:26" ht="21">
-      <c r="A57" s="18"/>
-      <c r="B57" s="17" t="s">
+    <row r="57" spans="1:26" ht="48.75">
+      <c r="A57" s="36" t="s">
+        <v>218</v>
+      </c>
+      <c r="B57" s="36" t="s">
         <v>219</v>
       </c>
-      <c r="C57" s="18"/>
-      <c r="D57" s="20"/>
-      <c r="E57" s="14"/>
+      <c r="C57" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="D57" s="19"/>
+      <c r="E57" s="46"/>
       <c r="F57" s="14"/>
       <c r="G57" s="14"/>
       <c r="H57" s="14"/>
@@ -14270,79 +14258,17 @@
       <c r="Y57" s="14"/>
       <c r="Z57" s="14"/>
     </row>
-    <row r="58" spans="1:26" ht="64.5">
-      <c r="A58" s="40" t="s">
-        <v>220</v>
-      </c>
-      <c r="B58" s="40" t="s">
-        <v>221</v>
-      </c>
-      <c r="C58" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="D58" s="48"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-      <c r="G58" s="14"/>
-      <c r="H58" s="14"/>
-      <c r="I58" s="14"/>
-      <c r="J58" s="14"/>
-      <c r="K58" s="14"/>
-      <c r="L58" s="14"/>
-      <c r="M58" s="14"/>
-      <c r="N58" s="14"/>
-      <c r="O58" s="14"/>
-      <c r="P58" s="14"/>
-      <c r="Q58" s="14"/>
-      <c r="R58" s="14"/>
-      <c r="S58" s="14"/>
-      <c r="T58" s="14"/>
-      <c r="U58" s="14"/>
-      <c r="V58" s="14"/>
-      <c r="W58" s="14"/>
-      <c r="X58" s="14"/>
-      <c r="Y58" s="14"/>
-      <c r="Z58" s="14"/>
-    </row>
-    <row r="59" spans="1:26" ht="48.75">
-      <c r="A59" s="36" t="s">
-        <v>222</v>
-      </c>
-      <c r="B59" s="36" t="s">
-        <v>223</v>
-      </c>
-      <c r="C59" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="D59" s="19"/>
-      <c r="E59" s="46"/>
-      <c r="F59" s="14"/>
-      <c r="G59" s="14"/>
-      <c r="H59" s="14"/>
-      <c r="I59" s="14"/>
-      <c r="J59" s="14"/>
-      <c r="K59" s="14"/>
-      <c r="L59" s="14"/>
-      <c r="M59" s="14"/>
-      <c r="N59" s="14"/>
-      <c r="O59" s="14"/>
-      <c r="P59" s="14"/>
-      <c r="Q59" s="14"/>
-      <c r="R59" s="14"/>
-      <c r="S59" s="14"/>
-      <c r="T59" s="14"/>
-      <c r="U59" s="14"/>
-      <c r="V59" s="14"/>
-      <c r="W59" s="14"/>
-      <c r="X59" s="14"/>
-      <c r="Y59" s="14"/>
-      <c r="Z59" s="14"/>
+    <row r="58" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A58" s="49"/>
+      <c r="B58" s="50"/>
+      <c r="C58" s="50"/>
+      <c r="D58" s="50"/>
+    </row>
+    <row r="59" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A59" s="1"/>
     </row>
     <row r="60" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A60" s="49"/>
-      <c r="B60" s="50"/>
-      <c r="C60" s="50"/>
-      <c r="D60" s="50"/>
+      <c r="A60" s="1"/>
     </row>
     <row r="61" spans="1:26" ht="15.75" customHeight="1">
       <c r="A61" s="1"/>
@@ -14355,21 +14281,21 @@
     </row>
     <row r="64" spans="1:26" ht="15.75" customHeight="1">
       <c r="A64" s="1"/>
+      <c r="B64" s="22" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="65" spans="1:2" ht="15.75" customHeight="1">
       <c r="A65" s="1"/>
+      <c r="B65" s="12" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="66" spans="1:2" ht="15.75" customHeight="1">
       <c r="A66" s="1"/>
-      <c r="B66" s="22" t="s">
-        <v>224</v>
-      </c>
     </row>
     <row r="67" spans="1:2" ht="15.75" customHeight="1">
       <c r="A67" s="1"/>
-      <c r="B67" s="12" t="s">
-        <v>225</v>
-      </c>
     </row>
     <row r="68" spans="1:2" ht="15.75" customHeight="1">
       <c r="A68" s="1"/>
@@ -14944,12 +14870,8 @@
     <row r="258" spans="1:1" ht="15.75" customHeight="1">
       <c r="A258" s="1"/>
     </row>
-    <row r="259" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A259" s="1"/>
-    </row>
-    <row r="260" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A260" s="1"/>
-    </row>
+    <row r="259" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="260" spans="1:1" ht="15.75" customHeight="1"/>
     <row r="261" spans="1:1" ht="15.75" customHeight="1"/>
     <row r="262" spans="1:1" ht="15.75" customHeight="1"/>
     <row r="263" spans="1:1" ht="15.75" customHeight="1"/>
@@ -15684,8 +15606,6 @@
     <row r="992" ht="15.75" customHeight="1"/>
     <row r="993" ht="15.75" customHeight="1"/>
     <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
@@ -15742,10 +15662,10 @@
     </row>
     <row r="3" spans="1:26" ht="66.75" customHeight="1">
       <c r="A3" s="35" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C3" s="37" t="s">
         <v>3</v>
@@ -15762,7 +15682,7 @@
     </row>
     <row r="5" spans="1:26" ht="61.5" customHeight="1">
       <c r="A5" s="35" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B5" s="36" t="s">
         <v>128</v>
@@ -15782,7 +15702,7 @@
     </row>
     <row r="7" spans="1:26" ht="48.75" customHeight="1">
       <c r="A7" s="36" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B7" s="36" t="s">
         <v>160</v>
@@ -15816,7 +15736,7 @@
     </row>
     <row r="8" spans="1:26" ht="48.75">
       <c r="A8" s="36" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B8" s="36" t="s">
         <v>162</v>
@@ -15850,7 +15770,7 @@
     </row>
     <row r="9" spans="1:26" ht="48.75">
       <c r="A9" s="40" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B9" s="40" t="s">
         <v>164</v>
@@ -15884,10 +15804,10 @@
     </row>
     <row r="10" spans="1:26" ht="32.25">
       <c r="A10" s="36" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C10" s="38" t="s">
         <v>37</v>
@@ -15918,7 +15838,7 @@
     </row>
     <row r="11" spans="1:26" ht="32.25">
       <c r="A11" s="36" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B11" s="36" t="s">
         <v>168</v>
@@ -15959,25 +15879,25 @@
     <row r="13" spans="1:26">
       <c r="A13" s="1"/>
       <c r="B13" s="22" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.45">
       <c r="A14" s="1"/>
       <c r="B14" s="12" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.45">
       <c r="A15" s="1"/>
       <c r="B15" s="12" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="28.9">
       <c r="A16" s="1"/>
       <c r="B16" s="19" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="14.45">
@@ -17419,10 +17339,10 @@
     </row>
     <row r="3" spans="1:26" ht="75.599999999999994" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C3" s="28" t="s">
         <v>3</v>
@@ -17439,7 +17359,7 @@
     </row>
     <row r="5" spans="1:26" ht="66.599999999999994" customHeight="1">
       <c r="A5" s="6" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>128</v>
@@ -17459,10 +17379,10 @@
     </row>
     <row r="7" spans="1:26" ht="48.75">
       <c r="A7" s="6" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C7" s="28" t="s">
         <v>3</v>
@@ -17471,10 +17391,10 @@
     </row>
     <row r="8" spans="1:26" ht="178.5">
       <c r="A8" s="6" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C8" s="28" t="s">
         <v>3</v>
@@ -17483,7 +17403,7 @@
     </row>
     <row r="9" spans="1:26" ht="64.5">
       <c r="A9" s="53" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B9" s="36" t="s">
         <v>147</v>
@@ -17517,7 +17437,7 @@
     </row>
     <row r="10" spans="1:26" ht="64.5">
       <c r="A10" s="53" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B10" s="36" t="s">
         <v>149</v>
@@ -17551,7 +17471,7 @@
     </row>
     <row r="11" spans="1:26" ht="51" customHeight="1">
       <c r="A11" s="53" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B11" s="36" t="s">
         <v>151</v>
@@ -17585,10 +17505,10 @@
     </row>
     <row r="12" spans="1:26" ht="61.5" customHeight="1">
       <c r="A12" s="54" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B12" s="36" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C12" s="38" t="s">
         <v>37</v>
@@ -17619,7 +17539,7 @@
     </row>
     <row r="13" spans="1:26" ht="61.5" customHeight="1">
       <c r="A13" s="54" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B13" s="36" t="s">
         <v>155</v>
@@ -17653,7 +17573,7 @@
     </row>
     <row r="14" spans="1:26" ht="61.5" customHeight="1">
       <c r="A14" s="54" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B14" s="36" t="s">
         <v>157</v>
@@ -17717,10 +17637,10 @@
     </row>
     <row r="16" spans="1:26" ht="54" customHeight="1">
       <c r="A16" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C16" s="28" t="s">
         <v>3</v>
@@ -17751,7 +17671,7 @@
     </row>
     <row r="17" spans="1:4" ht="64.5">
       <c r="A17" s="55" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B17" s="36" t="s">
         <v>76</v>
@@ -17763,7 +17683,7 @@
     </row>
     <row r="18" spans="1:4" ht="32.25">
       <c r="A18" s="55" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B18" s="36" t="s">
         <v>78</v>
@@ -17779,13 +17699,13 @@
     <row r="20" spans="1:4" ht="15.75" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="22" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="12" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1">
@@ -19167,7 +19087,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:X994"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+    <sheetView topLeftCell="A24" workbookViewId="0">
       <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
@@ -19186,17 +19106,17 @@
     <row r="2" spans="1:24" ht="23.25">
       <c r="A2" s="2"/>
       <c r="B2" s="15" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="5"/>
     </row>
     <row r="3" spans="1:24" ht="73.5" customHeight="1">
       <c r="A3" s="35" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C3" s="37" t="s">
         <v>3</v>
@@ -19206,7 +19126,7 @@
     <row r="4" spans="1:24" ht="23.25">
       <c r="A4" s="2"/>
       <c r="B4" s="15" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -19233,10 +19153,10 @@
     </row>
     <row r="5" spans="1:24" ht="228.75" customHeight="1">
       <c r="A5" s="35" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C5" s="37" t="s">
         <v>3</v>
@@ -19246,17 +19166,17 @@
     <row r="6" spans="1:24" ht="23.25">
       <c r="A6" s="2"/>
       <c r="B6" s="15" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:24" ht="48.75">
       <c r="A7" s="35" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C7" s="37" t="s">
         <v>3</v>
@@ -19265,10 +19185,10 @@
     </row>
     <row r="8" spans="1:24" ht="90.75" customHeight="1">
       <c r="A8" s="35" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C8" s="37" t="s">
         <v>3</v>
@@ -19278,7 +19198,7 @@
     <row r="9" spans="1:24" ht="23.25">
       <c r="A9" s="2"/>
       <c r="B9" s="15" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -19305,10 +19225,10 @@
     </row>
     <row r="10" spans="1:24" ht="65.25" customHeight="1">
       <c r="A10" s="35" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C10" s="37" t="s">
         <v>3</v>
@@ -19317,10 +19237,10 @@
     </row>
     <row r="11" spans="1:24" ht="96" customHeight="1">
       <c r="A11" s="35" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C11" s="37" t="s">
         <v>3</v>
@@ -19330,7 +19250,7 @@
     <row r="12" spans="1:24" ht="23.25">
       <c r="A12" s="2"/>
       <c r="B12" s="15" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -19357,10 +19277,10 @@
     </row>
     <row r="13" spans="1:24" ht="55.15" customHeight="1">
       <c r="A13" s="35" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C13" s="37" t="s">
         <v>3</v>
@@ -19369,10 +19289,10 @@
     </row>
     <row r="14" spans="1:24" ht="32.25">
       <c r="A14" s="35" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C14" s="38" t="s">
         <v>37</v>
@@ -19382,7 +19302,7 @@
     <row r="15" spans="1:24" ht="23.25">
       <c r="A15" s="2"/>
       <c r="B15" s="15" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -19409,10 +19329,10 @@
     </row>
     <row r="16" spans="1:24" ht="52.9" customHeight="1">
       <c r="A16" s="35" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C16" s="37" t="s">
         <v>3</v>
@@ -19422,17 +19342,17 @@
     <row r="17" spans="1:24" ht="23.25">
       <c r="A17" s="2"/>
       <c r="B17" s="15" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="5"/>
     </row>
     <row r="18" spans="1:24" ht="54.75" customHeight="1">
       <c r="A18" s="35" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B18" s="36" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C18" s="37" t="s">
         <v>3</v>
@@ -19441,10 +19361,10 @@
     </row>
     <row r="19" spans="1:24" ht="48.75">
       <c r="A19" s="35" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C19" s="38" t="s">
         <v>37</v>
@@ -19473,10 +19393,10 @@
     </row>
     <row r="20" spans="1:24" ht="32.25">
       <c r="A20" s="35" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C20" s="38" t="s">
         <v>37</v>
@@ -19505,10 +19425,10 @@
     </row>
     <row r="21" spans="1:24" ht="32.25">
       <c r="A21" s="35" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C21" s="38" t="s">
         <v>37</v>
@@ -19538,7 +19458,7 @@
     <row r="22" spans="1:24" ht="23.25">
       <c r="A22" s="2"/>
       <c r="B22" s="15" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -19565,10 +19485,10 @@
     </row>
     <row r="23" spans="1:24" ht="51.6" customHeight="1">
       <c r="A23" s="35" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B23" s="36" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C23" s="37" t="s">
         <v>3</v>
@@ -19577,10 +19497,10 @@
     </row>
     <row r="24" spans="1:24" ht="32.25">
       <c r="A24" s="35" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B24" s="36" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C24" s="38" t="s">
         <v>37</v>
@@ -19589,10 +19509,10 @@
     </row>
     <row r="25" spans="1:24" ht="16.5">
       <c r="A25" s="35" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B25" s="36" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C25" s="38" t="s">
         <v>37</v>
@@ -19601,10 +19521,10 @@
     </row>
     <row r="26" spans="1:24" ht="32.25">
       <c r="A26" s="35" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B26" s="36" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C26" s="38" t="s">
         <v>37</v>
@@ -19614,7 +19534,7 @@
     <row r="27" spans="1:24" ht="23.25">
       <c r="A27" s="2"/>
       <c r="B27" s="15" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -19641,10 +19561,10 @@
     </row>
     <row r="28" spans="1:24" ht="33.75">
       <c r="A28" s="35" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B28" s="36" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C28" s="37" t="s">
         <v>3</v>
@@ -19653,10 +19573,10 @@
     </row>
     <row r="29" spans="1:24" ht="16.5">
       <c r="A29" s="35" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B29" s="36" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C29" s="38" t="s">
         <v>37</v>
@@ -19665,10 +19585,10 @@
     </row>
     <row r="30" spans="1:24" ht="32.25">
       <c r="A30" s="35" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B30" s="36" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C30" s="38" t="s">
         <v>37</v>
@@ -19697,10 +19617,10 @@
     </row>
     <row r="31" spans="1:24" ht="16.5">
       <c r="A31" s="35" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B31" s="36" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C31" s="38" t="s">
         <v>37</v>
@@ -19730,7 +19650,7 @@
     <row r="32" spans="1:24" ht="23.25">
       <c r="A32" s="2"/>
       <c r="B32" s="15" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -19757,10 +19677,10 @@
     </row>
     <row r="33" spans="1:24" ht="42" customHeight="1">
       <c r="A33" s="36" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B33" s="36" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C33" s="37" t="s">
         <v>3</v>
@@ -19769,10 +19689,10 @@
     </row>
     <row r="34" spans="1:24" ht="15.75" customHeight="1">
       <c r="A34" s="35" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B34" s="36" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C34" s="38" t="s">
         <v>37</v>
@@ -19782,7 +19702,7 @@
     <row r="35" spans="1:24" ht="23.25">
       <c r="A35" s="2"/>
       <c r="B35" s="15" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -19809,10 +19729,10 @@
     </row>
     <row r="36" spans="1:24" ht="46.5" customHeight="1">
       <c r="A36" s="36" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B36" s="36" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C36" s="37" t="s">
         <v>3</v>
@@ -19822,17 +19742,17 @@
     <row r="37" spans="1:24" ht="23.25">
       <c r="A37" s="2"/>
       <c r="B37" s="15" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="5"/>
     </row>
     <row r="38" spans="1:24" ht="72.599999999999994" customHeight="1">
       <c r="A38" s="36" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B38" s="36" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C38" s="37" t="s">
         <v>3</v>
@@ -19841,10 +19761,10 @@
     </row>
     <row r="39" spans="1:24" ht="15.75" customHeight="1">
       <c r="A39" s="35" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B39" s="36" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C39" s="38" t="s">
         <v>37</v>
@@ -19853,10 +19773,10 @@
     </row>
     <row r="40" spans="1:24" ht="32.25">
       <c r="A40" s="35" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B40" s="36" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C40" s="38" t="s">
         <v>37</v>
@@ -19886,7 +19806,7 @@
     <row r="41" spans="1:24" ht="23.25">
       <c r="A41" s="2"/>
       <c r="B41" s="15" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -19913,10 +19833,10 @@
     </row>
     <row r="42" spans="1:24" ht="80.25" customHeight="1">
       <c r="A42" s="36" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B42" s="36" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C42" s="37" t="s">
         <v>3</v>
@@ -19925,10 +19845,10 @@
     </row>
     <row r="43" spans="1:24" ht="16.5">
       <c r="A43" s="35" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B43" s="36" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C43" s="42" t="s">
         <v>37</v>
@@ -19937,10 +19857,10 @@
     </row>
     <row r="44" spans="1:24" ht="48.75">
       <c r="A44" s="35" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B44" s="36" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C44" s="42" t="s">
         <v>37</v>
@@ -19970,17 +19890,17 @@
     <row r="45" spans="1:24" ht="23.25">
       <c r="A45" s="2"/>
       <c r="B45" s="15" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="5"/>
     </row>
     <row r="46" spans="1:24" ht="48" customHeight="1">
       <c r="A46" s="36" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B46" s="36" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C46" s="37" t="s">
         <v>3</v>
@@ -19989,10 +19909,10 @@
     </row>
     <row r="47" spans="1:24" ht="34.5" customHeight="1">
       <c r="A47" s="36" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B47" s="36" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C47" s="37" t="s">
         <v>3</v>
@@ -20001,10 +19921,10 @@
     </row>
     <row r="48" spans="1:24" ht="16.5">
       <c r="A48" s="36" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B48" s="36" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C48" s="38" t="s">
         <v>37</v>
@@ -20013,10 +19933,10 @@
     </row>
     <row r="49" spans="1:24" ht="64.5">
       <c r="A49" s="36" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B49" s="36" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C49" s="38" t="s">
         <v>37</v>
@@ -20026,7 +19946,7 @@
     <row r="50" spans="1:24" ht="23.25">
       <c r="A50" s="2"/>
       <c r="B50" s="15" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -20053,10 +19973,10 @@
     </row>
     <row r="51" spans="1:24" ht="47.45" customHeight="1">
       <c r="A51" s="36" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B51" s="36" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C51" s="37" t="s">
         <v>3</v>
@@ -20066,7 +19986,7 @@
     <row r="52" spans="1:24" ht="23.25">
       <c r="A52" s="2"/>
       <c r="B52" s="15" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -20093,10 +20013,10 @@
     </row>
     <row r="53" spans="1:24" ht="33.75" customHeight="1">
       <c r="A53" s="36" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B53" s="36" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C53" s="37" t="s">
         <v>3</v>
@@ -20105,10 +20025,10 @@
     </row>
     <row r="54" spans="1:24" ht="32.25">
       <c r="A54" s="35" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B54" s="36" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C54" s="38" t="s">
         <v>37</v>
@@ -20118,7 +20038,7 @@
     <row r="55" spans="1:24" ht="23.25">
       <c r="A55" s="2"/>
       <c r="B55" s="15" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -20145,10 +20065,10 @@
     </row>
     <row r="56" spans="1:24" ht="66.599999999999994" customHeight="1">
       <c r="A56" s="36" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B56" s="36" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C56" s="37" t="s">
         <v>3</v>
@@ -20157,10 +20077,10 @@
     </row>
     <row r="57" spans="1:24" ht="16.5">
       <c r="A57" s="35" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B57" s="36" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C57" s="38" t="s">
         <v>37</v>
@@ -20170,17 +20090,17 @@
     <row r="58" spans="1:24" ht="23.25">
       <c r="A58" s="2"/>
       <c r="B58" s="15" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="5"/>
     </row>
     <row r="59" spans="1:24" ht="48.75" customHeight="1">
       <c r="A59" s="36" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B59" s="36" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C59" s="37" t="s">
         <v>3</v>
@@ -20190,7 +20110,7 @@
     <row r="60" spans="1:24" ht="23.25">
       <c r="A60" s="2"/>
       <c r="B60" s="15" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -20217,10 +20137,10 @@
     </row>
     <row r="61" spans="1:24" ht="88.5" customHeight="1">
       <c r="A61" s="36" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B61" s="36" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C61" s="37" t="s">
         <v>3</v>
@@ -20229,10 +20149,10 @@
     </row>
     <row r="62" spans="1:24" ht="32.25">
       <c r="A62" s="35" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B62" s="36" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C62" s="38" t="s">
         <v>37</v>
@@ -20241,10 +20161,10 @@
     </row>
     <row r="63" spans="1:24" ht="48.75">
       <c r="A63" s="35" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B63" s="36" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C63" s="38" t="s">
         <v>37</v>
@@ -20274,7 +20194,7 @@
     <row r="64" spans="1:24" ht="23.25">
       <c r="A64" s="2"/>
       <c r="B64" s="15" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -20301,10 +20221,10 @@
     </row>
     <row r="65" spans="1:4" ht="66" customHeight="1">
       <c r="A65" s="36" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B65" s="36" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C65" s="37" t="s">
         <v>3</v>
@@ -20314,17 +20234,17 @@
     <row r="66" spans="1:4" ht="23.25">
       <c r="A66" s="2"/>
       <c r="B66" s="15" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="5"/>
     </row>
     <row r="67" spans="1:4" ht="47.25" customHeight="1">
       <c r="A67" s="36" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B67" s="36" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C67" s="37" t="s">
         <v>3</v>
@@ -20333,10 +20253,10 @@
     </row>
     <row r="68" spans="1:4" ht="48.75">
       <c r="A68" s="35" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B68" s="36" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C68" s="38" t="s">
         <v>37</v>
@@ -20345,10 +20265,10 @@
     </row>
     <row r="69" spans="1:4" ht="48.75">
       <c r="A69" s="35" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B69" s="36" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C69" s="38" t="s">
         <v>37</v>
@@ -20357,10 +20277,10 @@
     </row>
     <row r="70" spans="1:4" ht="32.25">
       <c r="A70" s="35" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B70" s="36" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C70" s="38" t="s">
         <v>37</v>
@@ -21717,17 +21637,17 @@
     <row r="2" spans="1:4" ht="23.25">
       <c r="A2" s="2"/>
       <c r="B2" s="15" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="5"/>
     </row>
     <row r="3" spans="1:4" ht="48" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C3" s="28" t="s">
         <v>3</v>
@@ -21736,10 +21656,10 @@
     </row>
     <row r="4" spans="1:4" ht="48.75">
       <c r="A4" s="6" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C4" s="28" t="s">
         <v>3</v>
@@ -21756,7 +21676,7 @@
     </row>
     <row r="6" spans="1:4" ht="60" customHeight="1">
       <c r="A6" s="6" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>61</v>
@@ -21768,7 +21688,7 @@
     </row>
     <row r="7" spans="1:4" ht="49.9" customHeight="1">
       <c r="A7" s="6" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>63</v>
@@ -21780,7 +21700,7 @@
     </row>
     <row r="8" spans="1:4" ht="40.5" customHeight="1">
       <c r="A8" s="6" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>65</v>
@@ -21793,17 +21713,17 @@
     <row r="9" spans="1:4" ht="23.25">
       <c r="A9" s="2"/>
       <c r="B9" s="15" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="5"/>
     </row>
     <row r="10" spans="1:4" ht="55.5" customHeight="1">
       <c r="A10" s="6" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C10" s="28" t="s">
         <v>3</v>
@@ -21812,10 +21732,10 @@
     </row>
     <row r="11" spans="1:4" ht="48.75">
       <c r="A11" s="6" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C11" s="28" t="s">
         <v>3</v>
@@ -21824,10 +21744,10 @@
     </row>
     <row r="12" spans="1:4" ht="32.25">
       <c r="A12" s="6" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C12" s="38" t="s">
         <v>37</v>
@@ -21837,17 +21757,17 @@
     <row r="13" spans="1:4" ht="23.25">
       <c r="A13" s="2"/>
       <c r="B13" s="15" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="5"/>
     </row>
     <row r="14" spans="1:4" ht="53.25" customHeight="1">
       <c r="A14" s="6" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C14" s="28" t="s">
         <v>3</v>
@@ -21857,17 +21777,17 @@
     <row r="15" spans="1:4" ht="23.25">
       <c r="A15" s="2"/>
       <c r="B15" s="15" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="5"/>
     </row>
     <row r="16" spans="1:4" ht="34.15" customHeight="1">
       <c r="A16" s="6" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C16" s="28" t="s">
         <v>3</v>
@@ -21877,14 +21797,14 @@
     <row r="17" spans="1:4" ht="23.25">
       <c r="A17" s="2"/>
       <c r="B17" s="3" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="5"/>
     </row>
     <row r="18" spans="1:4" ht="48.75">
       <c r="A18" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>71</v>
@@ -23304,7 +23224,7 @@
     <row r="2" spans="1:23" ht="23.25">
       <c r="A2" s="2"/>
       <c r="B2" s="15" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C2" s="26"/>
       <c r="D2" s="26"/>
@@ -23319,10 +23239,10 @@
     </row>
     <row r="3" spans="1:23" ht="57" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C3" s="28" t="s">
         <v>3</v>
@@ -23331,10 +23251,10 @@
     </row>
     <row r="4" spans="1:23" ht="32.25">
       <c r="A4" s="6" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C4" s="31" t="s">
         <v>37</v>
@@ -23362,10 +23282,10 @@
     </row>
     <row r="5" spans="1:23" ht="63.75" customHeight="1">
       <c r="A5" s="6" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C5" s="31" t="s">
         <v>37</v>
@@ -23393,10 +23313,10 @@
     </row>
     <row r="6" spans="1:23" ht="32.25">
       <c r="A6" s="6" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C6" s="31" t="s">
         <v>37</v>
@@ -23424,10 +23344,10 @@
     </row>
     <row r="7" spans="1:23" ht="32.25">
       <c r="A7" s="6" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B7" s="45" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="C7" s="31" t="s">
         <v>37</v>
@@ -23455,10 +23375,10 @@
     </row>
     <row r="8" spans="1:23" ht="32.25">
       <c r="A8" s="6" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C8" s="31" t="s">
         <v>37</v>
@@ -23487,17 +23407,17 @@
     <row r="9" spans="1:23" ht="23.25">
       <c r="A9" s="2"/>
       <c r="B9" s="43" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="5"/>
     </row>
     <row r="10" spans="1:23" ht="38.25" customHeight="1">
       <c r="A10" s="6" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C10" s="28" t="s">
         <v>3</v>
@@ -23506,10 +23426,10 @@
     </row>
     <row r="11" spans="1:23" ht="41.25" customHeight="1">
       <c r="A11" s="6" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C11" s="28" t="s">
         <v>3</v>
@@ -23537,10 +23457,10 @@
     </row>
     <row r="12" spans="1:23" ht="36" customHeight="1">
       <c r="A12" s="6" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C12" s="28" t="s">
         <v>3</v>
@@ -23568,10 +23488,10 @@
     </row>
     <row r="13" spans="1:23" ht="30" customHeight="1">
       <c r="A13" s="6" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C13" s="28" t="s">
         <v>3</v>
@@ -23599,10 +23519,10 @@
     </row>
     <row r="14" spans="1:23" ht="49.5" customHeight="1">
       <c r="A14" s="6" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C14" s="28" t="s">
         <v>3</v>
@@ -23630,10 +23550,10 @@
     </row>
     <row r="15" spans="1:23" ht="68.25" customHeight="1">
       <c r="A15" s="6" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C15" s="28" t="s">
         <v>3</v>
@@ -23661,10 +23581,10 @@
     </row>
     <row r="16" spans="1:23" ht="66.75" customHeight="1">
       <c r="A16" s="6" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="B16" s="44" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C16" s="28" t="s">
         <v>3</v>
@@ -23692,10 +23612,10 @@
     </row>
     <row r="17" spans="1:23" ht="57.75" customHeight="1">
       <c r="A17" s="6" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C17" s="28" t="s">
         <v>3</v>
@@ -23723,10 +23643,10 @@
     </row>
     <row r="18" spans="1:23" ht="68.25" customHeight="1">
       <c r="A18" s="6" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C18" s="28" t="s">
         <v>3</v>
@@ -23754,10 +23674,10 @@
     </row>
     <row r="19" spans="1:23" ht="16.5">
       <c r="A19" s="6" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C19" s="31" t="s">
         <v>37</v>
@@ -23785,10 +23705,10 @@
     </row>
     <row r="20" spans="1:23" ht="30.75" customHeight="1">
       <c r="A20" s="6" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C20" s="31" t="s">
         <v>37</v>
@@ -23816,10 +23736,10 @@
     </row>
     <row r="21" spans="1:23" ht="32.25" customHeight="1">
       <c r="A21" s="6" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="C21" s="31" t="s">
         <v>37</v>
@@ -23847,10 +23767,10 @@
     </row>
     <row r="22" spans="1:23" ht="32.25" customHeight="1">
       <c r="A22" s="6" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C22" s="31" t="s">
         <v>37</v>
@@ -23878,10 +23798,10 @@
     </row>
     <row r="23" spans="1:23" ht="32.25" customHeight="1">
       <c r="A23" s="6" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="C23" s="31" t="s">
         <v>37</v>
@@ -23909,10 +23829,10 @@
     </row>
     <row r="24" spans="1:23" ht="32.25" customHeight="1">
       <c r="A24" s="6" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="C24" s="31" t="s">
         <v>37</v>
@@ -23940,10 +23860,10 @@
     </row>
     <row r="25" spans="1:23" ht="32.25" customHeight="1">
       <c r="A25" s="6" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C25" s="31" t="s">
         <v>37</v>
@@ -23971,10 +23891,10 @@
     </row>
     <row r="26" spans="1:23" ht="32.25" customHeight="1">
       <c r="A26" s="6" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C26" s="31" t="s">
         <v>37</v>
@@ -24002,10 +23922,10 @@
     </row>
     <row r="27" spans="1:23" ht="32.25" customHeight="1">
       <c r="A27" s="6" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="C27" s="31" t="s">
         <v>37</v>
@@ -24034,17 +23954,17 @@
     <row r="28" spans="1:23" ht="23.25">
       <c r="A28" s="2"/>
       <c r="B28" s="15" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="5"/>
     </row>
     <row r="29" spans="1:23" ht="67.5" customHeight="1">
       <c r="A29" s="6" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="C29" s="28" t="s">
         <v>3</v>
@@ -24053,10 +23973,10 @@
     </row>
     <row r="30" spans="1:23" ht="15.75" customHeight="1">
       <c r="A30" s="6" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="C30" s="31" t="s">
         <v>37</v>
@@ -24084,10 +24004,10 @@
     </row>
     <row r="31" spans="1:23" ht="15.75" customHeight="1">
       <c r="A31" s="6" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="C31" s="31" t="s">
         <v>37</v>
@@ -24115,10 +24035,10 @@
     </row>
     <row r="32" spans="1:23" ht="15.75" customHeight="1">
       <c r="A32" s="6" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="C32" s="31" t="s">
         <v>37</v>
@@ -24147,7 +24067,7 @@
     <row r="33" spans="1:23" ht="23.25">
       <c r="A33" s="2"/>
       <c r="B33" s="15" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -24173,10 +24093,10 @@
     </row>
     <row r="34" spans="1:23" ht="48" customHeight="1">
       <c r="A34" s="6" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="C34" s="28" t="s">
         <v>3</v>
@@ -24185,10 +24105,10 @@
     </row>
     <row r="35" spans="1:23" ht="42" customHeight="1">
       <c r="A35" s="6" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="C35" s="28" t="s">
         <v>3</v>
@@ -24197,10 +24117,10 @@
     </row>
     <row r="36" spans="1:23" ht="75.75" customHeight="1">
       <c r="A36" s="6" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="C36" s="28" t="s">
         <v>3</v>
@@ -24209,10 +24129,10 @@
     </row>
     <row r="37" spans="1:23" ht="30" customHeight="1">
       <c r="A37" s="6" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="C37" s="28" t="s">
         <v>3</v>
@@ -24240,10 +24160,10 @@
     </row>
     <row r="38" spans="1:23" ht="75" customHeight="1">
       <c r="A38" s="6" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="C38" s="28" t="s">
         <v>3</v>
@@ -24252,20 +24172,20 @@
     </row>
     <row r="39" spans="1:23" ht="30.75" customHeight="1">
       <c r="A39" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="C39" s="6"/>
       <c r="D39" s="13"/>
     </row>
     <row r="40" spans="1:23" ht="30.75" customHeight="1">
       <c r="A40" s="6" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="C40" s="31" t="s">
         <v>37</v>
@@ -24274,10 +24194,10 @@
     </row>
     <row r="41" spans="1:23" ht="30.75" customHeight="1">
       <c r="A41" s="6" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="C41" s="31" t="s">
         <v>37</v>
@@ -24286,10 +24206,10 @@
     </row>
     <row r="42" spans="1:23" ht="30.75" customHeight="1">
       <c r="A42" s="6" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="C42" s="31" t="s">
         <v>37</v>
